--- a/term/ValueSet-KLConditionCodesHomeCare.xlsx
+++ b/term/ValueSet-KLConditionCodesHomeCare.xlsx
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-25T15:43:23+02:00</t>
+    <t>2023-04-28T21:13:26+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/term/ValueSet-KLConditionCodesHomeCare.xlsx
+++ b/term/ValueSet-KLConditionCodesHomeCare.xlsx
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T21:13:26+02:00</t>
+    <t>2023-05-07T23:02:44+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/term/ValueSet-KLConditionCodesHomeCare.xlsx
+++ b/term/ValueSet-KLConditionCodesHomeCare.xlsx
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T23:02:44+02:00</t>
+    <t>2023-05-09T23:50:17+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/term/ValueSet-KLConditionCodesHomeCare.xlsx
+++ b/term/ValueSet-KLConditionCodesHomeCare.xlsx
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-09T23:50:17+02:00</t>
+    <t>2023-06-07T11:52:14+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/term/ValueSet-KLConditionCodesHomeCare.xlsx
+++ b/term/ValueSet-KLConditionCodesHomeCare.xlsx
@@ -34,7 +34,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-07T11:52:14+02:00</t>
+    <t>2023-07-10T23:08:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -249,10 +249,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/term/ValueSet-KLConditionCodesHomeCare.xlsx
+++ b/term/ValueSet-KLConditionCodesHomeCare.xlsx
@@ -12,12 +12,17 @@
     <sheet name="Include from FSIII 3" r:id="rId6" sheetId="4"/>
     <sheet name="Include from FSIII 4" r:id="rId7" sheetId="5"/>
     <sheet name="Include from FSIII 5" r:id="rId8" sheetId="6"/>
+    <sheet name="Include from FSIII 6" r:id="rId9" sheetId="7"/>
+    <sheet name="Include from FSIII 7" r:id="rId10" sheetId="8"/>
+    <sheet name="Include from FSIII 8" r:id="rId11" sheetId="9"/>
+    <sheet name="Include from FSIII 9" r:id="rId12" sheetId="10"/>
+    <sheet name="Include from FSIII 10" r:id="rId13" sheetId="11"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="42">
   <si>
     <t>Property</t>
   </si>
@@ -34,7 +39,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -64,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-10T23:08:03+02:00</t>
+    <t>2024-06-01T22:25:19+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -76,7 +81,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Kommunernes Landsforening (http://kl.dk)</t>
   </si>
   <si>
     <t>Description</t>
@@ -106,16 +111,31 @@
     <t>descendent-of</t>
   </si>
   <si>
+    <t>43c2b7f0-5e55-4627-8fcf-bdaf5a9d84ac</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>System URI</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.208.176.2.21</t>
+  </si>
+  <si>
+    <t>1c850a09-aa49-4fae-9354-f932f13e030b</t>
+  </si>
+  <si>
+    <t>462f9352-0129-4d8e-8c75-a6dfed78ddcf</t>
+  </si>
+  <si>
+    <t>4571f168-a92a-4caf-8dc8-35f45c2a1cb4</t>
+  </si>
+  <si>
+    <t>86b53158-6d05-412e-ad55-2e1fa26359b3</t>
+  </si>
+  <si>
     <t>J1</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>System URI</t>
-  </si>
-  <si>
-    <t>urn:oid:1.2.208.176.2.21</t>
   </si>
   <si>
     <t>J2</t>
@@ -384,7 +404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -415,7 +435,7 @@
         <v>28</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -439,7 +459,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -470,7 +490,7 @@
         <v>28</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -494,7 +514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -525,7 +545,7 @@
         <v>28</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -549,7 +569,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -580,7 +600,7 @@
         <v>28</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -604,7 +624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -635,6 +655,116 @@
         <v>28</v>
       </c>
       <c r="C2" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
         <v>36</v>
       </c>
     </row>
@@ -657,4 +787,169 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/term/ValueSet-KLConditionCodesHomeCare.xlsx
+++ b/term/ValueSet-KLConditionCodesHomeCare.xlsx
@@ -12,17 +12,12 @@
     <sheet name="Include from FSIII 3" r:id="rId6" sheetId="4"/>
     <sheet name="Include from FSIII 4" r:id="rId7" sheetId="5"/>
     <sheet name="Include from FSIII 5" r:id="rId8" sheetId="6"/>
-    <sheet name="Include from FSIII 6" r:id="rId9" sheetId="7"/>
-    <sheet name="Include from FSIII 7" r:id="rId10" sheetId="8"/>
-    <sheet name="Include from FSIII 8" r:id="rId11" sheetId="9"/>
-    <sheet name="Include from FSIII 9" r:id="rId12" sheetId="10"/>
-    <sheet name="Include from FSIII 10" r:id="rId13" sheetId="11"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="37">
   <si>
     <t>Property</t>
   </si>
@@ -39,7 +34,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -69,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-01T22:25:19+02:00</t>
+    <t>2023-07-10T23:08:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +76,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Kommunernes Landsforening (http://kl.dk)</t>
+    <t>No display for ContactDetail</t>
   </si>
   <si>
     <t>Description</t>
@@ -111,7 +106,7 @@
     <t>descendent-of</t>
   </si>
   <si>
-    <t>43c2b7f0-5e55-4627-8fcf-bdaf5a9d84ac</t>
+    <t>J1</t>
   </si>
   <si>
     <t/>
@@ -121,21 +116,6 @@
   </si>
   <si>
     <t>urn:oid:1.2.208.176.2.21</t>
-  </si>
-  <si>
-    <t>1c850a09-aa49-4fae-9354-f932f13e030b</t>
-  </si>
-  <si>
-    <t>462f9352-0129-4d8e-8c75-a6dfed78ddcf</t>
-  </si>
-  <si>
-    <t>4571f168-a92a-4caf-8dc8-35f45c2a1cb4</t>
-  </si>
-  <si>
-    <t>86b53158-6d05-412e-ad55-2e1fa26359b3</t>
-  </si>
-  <si>
-    <t>J1</t>
   </si>
   <si>
     <t>J2</t>
@@ -404,116 +384,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C4"/>
@@ -787,169 +657,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>
--- a/term/ValueSet-KLConditionCodesHomeCare.xlsx
+++ b/term/ValueSet-KLConditionCodesHomeCare.xlsx
@@ -12,12 +12,17 @@
     <sheet name="Include from FSIII 3" r:id="rId6" sheetId="4"/>
     <sheet name="Include from FSIII 4" r:id="rId7" sheetId="5"/>
     <sheet name="Include from FSIII 5" r:id="rId8" sheetId="6"/>
+    <sheet name="Include from FSIII 6" r:id="rId9" sheetId="7"/>
+    <sheet name="Include from FSIII 7" r:id="rId10" sheetId="8"/>
+    <sheet name="Include from FSIII 8" r:id="rId11" sheetId="9"/>
+    <sheet name="Include from FSIII 9" r:id="rId12" sheetId="10"/>
+    <sheet name="Include from FSIII 10" r:id="rId13" sheetId="11"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="42">
   <si>
     <t>Property</t>
   </si>
@@ -34,7 +39,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -64,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-10T23:08:03+02:00</t>
+    <t>2024-06-03T10:45:43+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -76,7 +81,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Kommunernes Landsforening (http://kl.dk)</t>
   </si>
   <si>
     <t>Description</t>
@@ -106,16 +111,31 @@
     <t>descendent-of</t>
   </si>
   <si>
+    <t>43c2b7f0-5e55-4627-8fcf-bdaf5a9d84ac</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>System URI</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.208.176.2.21</t>
+  </si>
+  <si>
+    <t>1c850a09-aa49-4fae-9354-f932f13e030b</t>
+  </si>
+  <si>
+    <t>462f9352-0129-4d8e-8c75-a6dfed78ddcf</t>
+  </si>
+  <si>
+    <t>4571f168-a92a-4caf-8dc8-35f45c2a1cb4</t>
+  </si>
+  <si>
+    <t>86b53158-6d05-412e-ad55-2e1fa26359b3</t>
+  </si>
+  <si>
     <t>J1</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>System URI</t>
-  </si>
-  <si>
-    <t>urn:oid:1.2.208.176.2.21</t>
   </si>
   <si>
     <t>J2</t>
@@ -384,7 +404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -415,7 +435,7 @@
         <v>28</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -439,7 +459,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -470,7 +490,7 @@
         <v>28</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -494,7 +514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -525,7 +545,7 @@
         <v>28</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -549,7 +569,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -580,7 +600,7 @@
         <v>28</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -604,7 +624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -635,6 +655,116 @@
         <v>28</v>
       </c>
       <c r="C2" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
         <v>36</v>
       </c>
     </row>
@@ -657,4 +787,169 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/term/ValueSet-KLConditionCodesHomeCare.xlsx
+++ b/term/ValueSet-KLConditionCodesHomeCare.xlsx
@@ -12,17 +12,12 @@
     <sheet name="Include from FSIII 3" r:id="rId6" sheetId="4"/>
     <sheet name="Include from FSIII 4" r:id="rId7" sheetId="5"/>
     <sheet name="Include from FSIII 5" r:id="rId8" sheetId="6"/>
-    <sheet name="Include from FSIII 6" r:id="rId9" sheetId="7"/>
-    <sheet name="Include from FSIII 7" r:id="rId10" sheetId="8"/>
-    <sheet name="Include from FSIII 8" r:id="rId11" sheetId="9"/>
-    <sheet name="Include from FSIII 9" r:id="rId12" sheetId="10"/>
-    <sheet name="Include from FSIII 10" r:id="rId13" sheetId="11"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="37">
   <si>
     <t>Property</t>
   </si>
@@ -39,7 +34,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -69,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T10:45:43+02:00</t>
+    <t>2023-07-10T23:08:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +76,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Kommunernes Landsforening (http://kl.dk)</t>
+    <t>No display for ContactDetail</t>
   </si>
   <si>
     <t>Description</t>
@@ -111,7 +106,7 @@
     <t>descendent-of</t>
   </si>
   <si>
-    <t>43c2b7f0-5e55-4627-8fcf-bdaf5a9d84ac</t>
+    <t>J1</t>
   </si>
   <si>
     <t/>
@@ -121,21 +116,6 @@
   </si>
   <si>
     <t>urn:oid:1.2.208.176.2.21</t>
-  </si>
-  <si>
-    <t>1c850a09-aa49-4fae-9354-f932f13e030b</t>
-  </si>
-  <si>
-    <t>462f9352-0129-4d8e-8c75-a6dfed78ddcf</t>
-  </si>
-  <si>
-    <t>4571f168-a92a-4caf-8dc8-35f45c2a1cb4</t>
-  </si>
-  <si>
-    <t>86b53158-6d05-412e-ad55-2e1fa26359b3</t>
-  </si>
-  <si>
-    <t>J1</t>
   </si>
   <si>
     <t>J2</t>
@@ -404,116 +384,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C4"/>
@@ -787,169 +657,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>
--- a/term/ValueSet-KLConditionCodesHomeCare.xlsx
+++ b/term/ValueSet-KLConditionCodesHomeCare.xlsx
@@ -12,12 +12,17 @@
     <sheet name="Include from FSIII 3" r:id="rId6" sheetId="4"/>
     <sheet name="Include from FSIII 4" r:id="rId7" sheetId="5"/>
     <sheet name="Include from FSIII 5" r:id="rId8" sheetId="6"/>
+    <sheet name="Include from FSIII 6" r:id="rId9" sheetId="7"/>
+    <sheet name="Include from FSIII 7" r:id="rId10" sheetId="8"/>
+    <sheet name="Include from FSIII 8" r:id="rId11" sheetId="9"/>
+    <sheet name="Include from FSIII 9" r:id="rId12" sheetId="10"/>
+    <sheet name="Include from FSIII 10" r:id="rId13" sheetId="11"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="42">
   <si>
     <t>Property</t>
   </si>
@@ -34,7 +39,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -64,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-10T23:08:03+02:00</t>
+    <t>2024-06-04T14:59:10+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -76,7 +81,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Kommunernes Landsforening (http://kl.dk)</t>
   </si>
   <si>
     <t>Description</t>
@@ -106,16 +111,31 @@
     <t>descendent-of</t>
   </si>
   <si>
+    <t>43c2b7f0-5e55-4627-8fcf-bdaf5a9d84ac</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>System URI</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.208.176.2.21</t>
+  </si>
+  <si>
+    <t>1c850a09-aa49-4fae-9354-f932f13e030b</t>
+  </si>
+  <si>
+    <t>462f9352-0129-4d8e-8c75-a6dfed78ddcf</t>
+  </si>
+  <si>
+    <t>4571f168-a92a-4caf-8dc8-35f45c2a1cb4</t>
+  </si>
+  <si>
+    <t>86b53158-6d05-412e-ad55-2e1fa26359b3</t>
+  </si>
+  <si>
     <t>J1</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>System URI</t>
-  </si>
-  <si>
-    <t>urn:oid:1.2.208.176.2.21</t>
   </si>
   <si>
     <t>J2</t>
@@ -384,7 +404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -415,7 +435,7 @@
         <v>28</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -439,7 +459,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -470,7 +490,7 @@
         <v>28</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -494,7 +514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -525,7 +545,7 @@
         <v>28</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -549,7 +569,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -580,7 +600,7 @@
         <v>28</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -604,7 +624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -635,6 +655,116 @@
         <v>28</v>
       </c>
       <c r="C2" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
         <v>36</v>
       </c>
     </row>
@@ -657,4 +787,169 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/term/ValueSet-KLConditionCodesHomeCare.xlsx
+++ b/term/ValueSet-KLConditionCodesHomeCare.xlsx
@@ -39,7 +39,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-04T14:59:10+02:00</t>
+    <t>2024-06-13T16:58:41+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
